--- a/data/zenodo/conversion/elec/CHE_convelec_hydroror.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_hydroror.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo_ivan/conversion/elec/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E99222-B87F-294C-8F51-97107E931700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5EC5B-8076-F641-8442-78534132B8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$852</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$853</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1956" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="76">
   <si>
     <t>Name:</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t>Maximum energy production per capacity unit, per year.</t>
+  </si>
+  <si>
+    <t>enable_year</t>
   </si>
 </sst>
 </file>
@@ -687,11 +690,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L432"/>
+  <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12:L12"/>
+      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -793,16 +796,13 @@
         <v>43</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>1990</v>
       </c>
       <c r="K7" s="2"/>
     </row>
@@ -814,13 +814,13 @@
         <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>72</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -835,13 +835,13 @@
         <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -856,16 +856,16 @@
         <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
         <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2"/>
     </row>
@@ -877,26 +877,18 @@
         <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>68</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
       </c>
       <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" t="s">
-        <v>47</v>
-      </c>
-      <c r="J11" t="s">
-        <v>48</v>
-      </c>
-      <c r="L11" t="s">
-        <v>49</v>
-      </c>
+        <v>0.98</v>
+      </c>
+      <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -906,19 +898,25 @@
         <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
         <v>38</v>
       </c>
       <c r="G12">
-        <v>31.54</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>47</v>
+      </c>
+      <c r="J12" t="s">
+        <v>48</v>
       </c>
       <c r="L12" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -928,25 +926,21 @@
       <c r="B13" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
+      <c r="C13" t="s">
+        <v>69</v>
       </c>
       <c r="D13" t="s">
         <v>38</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>31.54</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" t="s">
-        <v>48</v>
-      </c>
-      <c r="K13" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="L13" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -956,16 +950,22 @@
         <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
         <v>38</v>
       </c>
       <c r="G14">
-        <v>8.3000000000000007</v>
+        <v>0</v>
+      </c>
+      <c r="H14" t="s">
+        <v>50</v>
       </c>
       <c r="I14" t="s">
         <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
       </c>
       <c r="K14" s="2"/>
     </row>
@@ -977,16 +977,13 @@
         <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>38</v>
       </c>
       <c r="G15">
-        <v>40</v>
-      </c>
-      <c r="H15" t="s">
-        <v>51</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="I15" t="s">
         <v>47</v>
@@ -1001,22 +998,19 @@
         <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="4">
-        <v>22200</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>53</v>
+      <c r="G16">
+        <v>40</v>
+      </c>
+      <c r="H16" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" t="s">
+        <v>47</v>
       </c>
       <c r="K16" s="2"/>
     </row>
@@ -1028,16 +1022,22 @@
         <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
         <v>38</v>
       </c>
-      <c r="H17" t="s">
-        <v>46</v>
-      </c>
-      <c r="I17" t="s">
-        <v>47</v>
+      <c r="G17" s="4">
+        <v>22200</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="K17" s="2"/>
     </row>
@@ -1049,19 +1049,16 @@
         <v>43</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
-      <c r="G18">
-        <v>0.84</v>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
       <c r="I18" t="s">
         <v>47</v>
-      </c>
-      <c r="J18" t="s">
-        <v>54</v>
       </c>
       <c r="K18" s="2"/>
     </row>
@@ -1073,19 +1070,19 @@
         <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>0.84</v>
       </c>
       <c r="I19" t="s">
         <v>47</v>
       </c>
       <c r="J19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="2"/>
     </row>
@@ -1096,27 +1093,22 @@
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
-        <v>17</v>
+      <c r="C20" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20">
-        <v>1990</v>
+        <v>38</v>
       </c>
       <c r="G20">
-        <v>13561</v>
-      </c>
-      <c r="H20" t="s">
-        <v>52</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
         <v>47</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -1132,10 +1124,10 @@
         <v>39</v>
       </c>
       <c r="E21">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G21">
-        <v>13898</v>
+        <v>13561</v>
       </c>
       <c r="H21" t="s">
         <v>52</v>
@@ -1161,10 +1153,10 @@
         <v>39</v>
       </c>
       <c r="E22">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G22">
-        <v>15219</v>
+        <v>13898</v>
       </c>
       <c r="H22" t="s">
         <v>52</v>
@@ -1190,10 +1182,10 @@
         <v>39</v>
       </c>
       <c r="E23">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G23">
-        <v>15451</v>
+        <v>15219</v>
       </c>
       <c r="H23" t="s">
         <v>52</v>
@@ -1219,10 +1211,10 @@
         <v>39</v>
       </c>
       <c r="E24">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G24">
-        <v>16590</v>
+        <v>15451</v>
       </c>
       <c r="H24" t="s">
         <v>52</v>
@@ -1248,10 +1240,10 @@
         <v>39</v>
       </c>
       <c r="E25">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G25">
-        <v>16148</v>
+        <v>16590</v>
       </c>
       <c r="H25" t="s">
         <v>52</v>
@@ -1277,10 +1269,10 @@
         <v>39</v>
       </c>
       <c r="E26">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G26">
-        <v>13669</v>
+        <v>16148</v>
       </c>
       <c r="H26" t="s">
         <v>52</v>
@@ -1306,10 +1298,10 @@
         <v>39</v>
       </c>
       <c r="E27">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G27">
-        <v>14695</v>
+        <v>13669</v>
       </c>
       <c r="H27" t="s">
         <v>52</v>
@@ -1335,10 +1327,10 @@
         <v>39</v>
       </c>
       <c r="E28">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G28">
-        <v>14966</v>
+        <v>14695</v>
       </c>
       <c r="H28" t="s">
         <v>52</v>
@@ -1364,10 +1356,10 @@
         <v>39</v>
       </c>
       <c r="E29">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G29">
-        <v>16640</v>
+        <v>14966</v>
       </c>
       <c r="H29" t="s">
         <v>52</v>
@@ -1393,10 +1385,10 @@
         <v>39</v>
       </c>
       <c r="E30">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G30">
-        <v>17566</v>
+        <v>16640</v>
       </c>
       <c r="H30" t="s">
         <v>52</v>
@@ -1422,10 +1414,10 @@
         <v>39</v>
       </c>
       <c r="E31">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G31">
-        <v>17751</v>
+        <v>17566</v>
       </c>
       <c r="H31" t="s">
         <v>52</v>
@@ -1451,10 +1443,10 @@
         <v>39</v>
       </c>
       <c r="E32">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G32">
-        <v>17625</v>
+        <v>17751</v>
       </c>
       <c r="H32" t="s">
         <v>52</v>
@@ -1480,10 +1472,10 @@
         <v>39</v>
       </c>
       <c r="E33">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G33">
-        <v>15398</v>
+        <v>17625</v>
       </c>
       <c r="H33" t="s">
         <v>52</v>
@@ -1509,10 +1501,10 @@
         <v>39</v>
       </c>
       <c r="E34">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G34">
-        <v>16039</v>
+        <v>15398</v>
       </c>
       <c r="H34" t="s">
         <v>52</v>
@@ -1538,10 +1530,10 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G35">
-        <v>14998</v>
+        <v>16039</v>
       </c>
       <c r="H35" t="s">
         <v>52</v>
@@ -1567,10 +1559,10 @@
         <v>39</v>
       </c>
       <c r="E36">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G36">
-        <v>15819</v>
+        <v>14998</v>
       </c>
       <c r="H36" t="s">
         <v>52</v>
@@ -1596,10 +1588,10 @@
         <v>39</v>
       </c>
       <c r="E37">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G37">
-        <v>16547</v>
+        <v>15819</v>
       </c>
       <c r="H37" t="s">
         <v>52</v>
@@ -1625,10 +1617,10 @@
         <v>39</v>
       </c>
       <c r="E38">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G38">
-        <v>16686</v>
+        <v>16547</v>
       </c>
       <c r="H38" t="s">
         <v>52</v>
@@ -1654,10 +1646,10 @@
         <v>39</v>
       </c>
       <c r="E39">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G39">
-        <v>16110</v>
+        <v>16686</v>
       </c>
       <c r="H39" t="s">
         <v>52</v>
@@ -1683,10 +1675,10 @@
         <v>39</v>
       </c>
       <c r="E40">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G40">
-        <v>16030</v>
+        <v>16110</v>
       </c>
       <c r="H40" t="s">
         <v>52</v>
@@ -1712,10 +1704,10 @@
         <v>39</v>
       </c>
       <c r="E41">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G41">
-        <v>14733</v>
+        <v>16030</v>
       </c>
       <c r="H41" t="s">
         <v>52</v>
@@ -1741,10 +1733,10 @@
         <v>39</v>
       </c>
       <c r="E42">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>17832</v>
+        <v>14733</v>
       </c>
       <c r="H42" t="s">
         <v>52</v>
@@ -1770,10 +1762,10 @@
         <v>39</v>
       </c>
       <c r="E43">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>17759</v>
+        <v>17832</v>
       </c>
       <c r="H43" t="s">
         <v>52</v>
@@ -1799,10 +1791,10 @@
         <v>39</v>
       </c>
       <c r="E44">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>17243</v>
+        <v>17759</v>
       </c>
       <c r="H44" t="s">
         <v>52</v>
@@ -1828,10 +1820,10 @@
         <v>39</v>
       </c>
       <c r="E45">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>16595</v>
+        <v>17243</v>
       </c>
       <c r="H45" t="s">
         <v>52</v>
@@ -1857,10 +1849,10 @@
         <v>39</v>
       </c>
       <c r="E46">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>16574</v>
+        <v>16595</v>
       </c>
       <c r="H46" t="s">
         <v>52</v>
@@ -1886,10 +1878,10 @@
         <v>39</v>
       </c>
       <c r="E47">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G47">
-        <v>15946</v>
+        <v>16574</v>
       </c>
       <c r="H47" t="s">
         <v>52</v>
@@ -1915,10 +1907,10 @@
         <v>39</v>
       </c>
       <c r="E48">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G48">
-        <v>16908</v>
+        <v>15946</v>
       </c>
       <c r="H48" t="s">
         <v>52</v>
@@ -1944,10 +1936,10 @@
         <v>39</v>
       </c>
       <c r="E49">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>17700</v>
+        <v>16908</v>
       </c>
       <c r="H49" t="s">
         <v>52</v>
@@ -1967,22 +1959,25 @@
         <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D50" t="s">
         <v>39</v>
       </c>
       <c r="E50">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G50">
-        <v>3292</v>
+        <v>17700</v>
       </c>
       <c r="H50" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="I50" t="s">
         <v>47</v>
+      </c>
+      <c r="J50" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -1999,7 +1994,7 @@
         <v>39</v>
       </c>
       <c r="E51">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G51">
         <v>3292</v>
@@ -2010,12 +2005,6 @@
       <c r="I51" t="s">
         <v>47</v>
       </c>
-      <c r="J51" t="s">
-        <v>58</v>
-      </c>
-      <c r="L51" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2031,7 +2020,7 @@
         <v>39</v>
       </c>
       <c r="E52">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G52">
         <v>3292</v>
@@ -2042,6 +2031,12 @@
       <c r="I52" t="s">
         <v>47</v>
       </c>
+      <c r="J52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2057,7 +2052,7 @@
         <v>39</v>
       </c>
       <c r="E53">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G53">
         <v>3292</v>
@@ -2083,7 +2078,7 @@
         <v>39</v>
       </c>
       <c r="E54">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G54">
         <v>3292</v>
@@ -2109,7 +2104,7 @@
         <v>39</v>
       </c>
       <c r="E55">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G55">
         <v>3292</v>
@@ -2135,22 +2130,16 @@
         <v>39</v>
       </c>
       <c r="E56">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G56">
-        <v>3381</v>
+        <v>3292</v>
       </c>
       <c r="H56" t="s">
         <v>57</v>
       </c>
       <c r="I56" t="s">
         <v>47</v>
-      </c>
-      <c r="J56" t="s">
-        <v>58</v>
-      </c>
-      <c r="L56" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -2167,7 +2156,7 @@
         <v>39</v>
       </c>
       <c r="E57">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G57">
         <v>3381</v>
@@ -2178,6 +2167,12 @@
       <c r="I57" t="s">
         <v>47</v>
       </c>
+      <c r="J57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -2193,7 +2188,7 @@
         <v>39</v>
       </c>
       <c r="E58">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G58">
         <v>3381</v>
@@ -2219,7 +2214,7 @@
         <v>39</v>
       </c>
       <c r="E59">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G59">
         <v>3381</v>
@@ -2245,7 +2240,7 @@
         <v>39</v>
       </c>
       <c r="E60">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G60">
         <v>3381</v>
@@ -2271,22 +2266,16 @@
         <v>39</v>
       </c>
       <c r="E61">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G61">
-        <v>3475</v>
+        <v>3381</v>
       </c>
       <c r="H61" t="s">
         <v>57</v>
       </c>
       <c r="I61" t="s">
         <v>47</v>
-      </c>
-      <c r="J61" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -2303,7 +2292,7 @@
         <v>39</v>
       </c>
       <c r="E62">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G62">
         <v>3475</v>
@@ -2314,6 +2303,12 @@
       <c r="I62" t="s">
         <v>47</v>
       </c>
+      <c r="J62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -2329,7 +2324,7 @@
         <v>39</v>
       </c>
       <c r="E63">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G63">
         <v>3475</v>
@@ -2355,7 +2350,7 @@
         <v>39</v>
       </c>
       <c r="E64">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G64">
         <v>3475</v>
@@ -2367,7 +2362,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -2381,7 +2376,7 @@
         <v>39</v>
       </c>
       <c r="E65">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G65">
         <v>3475</v>
@@ -2393,7 +2388,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -2407,10 +2402,10 @@
         <v>39</v>
       </c>
       <c r="E66">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G66">
-        <v>3640</v>
+        <v>3475</v>
       </c>
       <c r="H66" t="s">
         <v>57</v>
@@ -2418,11 +2413,8 @@
       <c r="I66" t="s">
         <v>47</v>
       </c>
-      <c r="J66" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -2436,7 +2428,7 @@
         <v>39</v>
       </c>
       <c r="E67">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G67">
         <v>3640</v>
@@ -2447,8 +2439,11 @@
       <c r="I67" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J67" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -2462,10 +2457,10 @@
         <v>39</v>
       </c>
       <c r="E68">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G68">
-        <v>3657.8</v>
+        <v>3640</v>
       </c>
       <c r="H68" t="s">
         <v>57</v>
@@ -2473,11 +2468,8 @@
       <c r="I68" t="s">
         <v>47</v>
       </c>
-      <c r="J68" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2491,7 +2483,7 @@
         <v>39</v>
       </c>
       <c r="E69">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G69">
         <v>3657.8</v>
@@ -2502,8 +2494,11 @@
       <c r="I69" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -2517,10 +2512,10 @@
         <v>39</v>
       </c>
       <c r="E70">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G70">
-        <v>3768.02</v>
+        <v>3657.8</v>
       </c>
       <c r="H70" t="s">
         <v>57</v>
@@ -2528,11 +2523,8 @@
       <c r="I70" t="s">
         <v>47</v>
       </c>
-      <c r="J70" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -2546,10 +2538,10 @@
         <v>39</v>
       </c>
       <c r="E71">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G71">
-        <v>3810.03</v>
+        <v>3768.02</v>
       </c>
       <c r="H71" t="s">
         <v>57</v>
@@ -2561,7 +2553,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -2575,10 +2567,10 @@
         <v>39</v>
       </c>
       <c r="E72">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G72">
-        <v>3839.85</v>
+        <v>3810.03</v>
       </c>
       <c r="H72" t="s">
         <v>57</v>
@@ -2590,7 +2582,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -2604,10 +2596,10 @@
         <v>39</v>
       </c>
       <c r="E73">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G73">
-        <v>3853.55</v>
+        <v>3839.85</v>
       </c>
       <c r="H73" t="s">
         <v>57</v>
@@ -2619,7 +2611,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -2633,10 +2625,10 @@
         <v>39</v>
       </c>
       <c r="E74">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G74">
-        <v>3893.73</v>
+        <v>3853.55</v>
       </c>
       <c r="H74" t="s">
         <v>57</v>
@@ -2648,7 +2640,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -2662,10 +2654,10 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G75">
-        <v>3941.32</v>
+        <v>3893.73</v>
       </c>
       <c r="H75" t="s">
         <v>57</v>
@@ -2677,7 +2669,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -2691,10 +2683,10 @@
         <v>39</v>
       </c>
       <c r="E76">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G76">
-        <v>4004.07</v>
+        <v>3941.32</v>
       </c>
       <c r="H76" t="s">
         <v>57</v>
@@ -2706,7 +2698,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -2720,10 +2712,10 @@
         <v>39</v>
       </c>
       <c r="E77">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G77">
-        <v>4053.2</v>
+        <v>4004.07</v>
       </c>
       <c r="H77" t="s">
         <v>57</v>
@@ -2735,7 +2727,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -2749,10 +2741,10 @@
         <v>39</v>
       </c>
       <c r="E78">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G78">
-        <v>4132.76</v>
+        <v>4053.2</v>
       </c>
       <c r="H78" t="s">
         <v>57</v>
@@ -2764,7 +2756,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -2778,10 +2770,10 @@
         <v>39</v>
       </c>
       <c r="E79">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G79">
-        <v>4161.6499999999996</v>
+        <v>4132.76</v>
       </c>
       <c r="H79" t="s">
         <v>57</v>
@@ -2793,7 +2785,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -2801,16 +2793,16 @@
         <v>43</v>
       </c>
       <c r="C80" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D80" t="s">
         <v>39</v>
       </c>
       <c r="E80">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G80">
-        <v>0</v>
+        <v>4161.6499999999996</v>
       </c>
       <c r="H80" t="s">
         <v>57</v>
@@ -2818,8 +2810,8 @@
       <c r="I80" t="s">
         <v>47</v>
       </c>
-      <c r="L80" t="s">
-        <v>61</v>
+      <c r="J80" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -2836,7 +2828,7 @@
         <v>39</v>
       </c>
       <c r="E81">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G81">
         <v>0</v>
@@ -2865,7 +2857,7 @@
         <v>39</v>
       </c>
       <c r="E82">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G82">
         <v>0</v>
@@ -2894,7 +2886,7 @@
         <v>39</v>
       </c>
       <c r="E83">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -2923,7 +2915,7 @@
         <v>39</v>
       </c>
       <c r="E84">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G84">
         <v>0</v>
@@ -2952,7 +2944,7 @@
         <v>39</v>
       </c>
       <c r="E85">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -2981,10 +2973,10 @@
         <v>39</v>
       </c>
       <c r="E86">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G86">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="H86" t="s">
         <v>57</v>
@@ -3010,10 +3002,10 @@
         <v>39</v>
       </c>
       <c r="E87">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G87">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H87" t="s">
         <v>57</v>
@@ -3039,7 +3031,7 @@
         <v>39</v>
       </c>
       <c r="E88">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -3068,7 +3060,7 @@
         <v>39</v>
       </c>
       <c r="E89">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G89">
         <v>0</v>
@@ -3097,7 +3089,7 @@
         <v>39</v>
       </c>
       <c r="E90">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G90">
         <v>0</v>
@@ -3126,10 +3118,10 @@
         <v>39</v>
       </c>
       <c r="E91">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G91">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="H91" t="s">
         <v>57</v>
@@ -3155,10 +3147,10 @@
         <v>39</v>
       </c>
       <c r="E92">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="H92" t="s">
         <v>57</v>
@@ -3184,7 +3176,7 @@
         <v>39</v>
       </c>
       <c r="E93">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G93">
         <v>0</v>
@@ -3213,7 +3205,7 @@
         <v>39</v>
       </c>
       <c r="E94">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -3242,7 +3234,7 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -3271,10 +3263,10 @@
         <v>39</v>
       </c>
       <c r="E96">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G96">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="H96" t="s">
         <v>57</v>
@@ -3300,10 +3292,10 @@
         <v>39</v>
       </c>
       <c r="E97">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="H97" t="s">
         <v>57</v>
@@ -3329,10 +3321,10 @@
         <v>39</v>
       </c>
       <c r="E98">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G98">
-        <v>17.8</v>
+        <v>0</v>
       </c>
       <c r="H98" t="s">
         <v>57</v>
@@ -3358,10 +3350,10 @@
         <v>39</v>
       </c>
       <c r="E99">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>17.8</v>
       </c>
       <c r="H99" t="s">
         <v>57</v>
@@ -3387,10 +3379,10 @@
         <v>39</v>
       </c>
       <c r="E100">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G100">
-        <v>110.22</v>
+        <v>0</v>
       </c>
       <c r="H100" t="s">
         <v>57</v>
@@ -3416,10 +3408,10 @@
         <v>39</v>
       </c>
       <c r="E101">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G101">
-        <v>42.01</v>
+        <v>110.22</v>
       </c>
       <c r="H101" t="s">
         <v>57</v>
@@ -3445,10 +3437,10 @@
         <v>39</v>
       </c>
       <c r="E102">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G102">
-        <v>29.82</v>
+        <v>42.01</v>
       </c>
       <c r="H102" t="s">
         <v>57</v>
@@ -3474,10 +3466,10 @@
         <v>39</v>
       </c>
       <c r="E103">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G103">
-        <v>13.7</v>
+        <v>29.82</v>
       </c>
       <c r="H103" t="s">
         <v>57</v>
@@ -3503,10 +3495,10 @@
         <v>39</v>
       </c>
       <c r="E104">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G104">
-        <v>40.18</v>
+        <v>13.7</v>
       </c>
       <c r="H104" t="s">
         <v>57</v>
@@ -3532,10 +3524,10 @@
         <v>39</v>
       </c>
       <c r="E105">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G105">
-        <v>47.59</v>
+        <v>40.18</v>
       </c>
       <c r="H105" t="s">
         <v>57</v>
@@ -3561,10 +3553,10 @@
         <v>39</v>
       </c>
       <c r="E106">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G106">
-        <v>62.75</v>
+        <v>47.59</v>
       </c>
       <c r="H106" t="s">
         <v>57</v>
@@ -3590,10 +3582,10 @@
         <v>39</v>
       </c>
       <c r="E107">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G107">
-        <v>49.13</v>
+        <v>62.75</v>
       </c>
       <c r="H107" t="s">
         <v>57</v>
@@ -3619,10 +3611,10 @@
         <v>39</v>
       </c>
       <c r="E108">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G108">
-        <v>79.56</v>
+        <v>49.13</v>
       </c>
       <c r="H108" t="s">
         <v>57</v>
@@ -3648,10 +3640,10 @@
         <v>39</v>
       </c>
       <c r="E109">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G109">
-        <v>28.89</v>
+        <v>79.56</v>
       </c>
       <c r="H109" t="s">
         <v>57</v>
@@ -3671,16 +3663,16 @@
         <v>43</v>
       </c>
       <c r="C110" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D110" t="s">
         <v>39</v>
       </c>
       <c r="E110">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>28.89</v>
       </c>
       <c r="H110" t="s">
         <v>57</v>
@@ -3706,7 +3698,7 @@
         <v>39</v>
       </c>
       <c r="E111">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G111">
         <v>0</v>
@@ -3735,7 +3727,7 @@
         <v>39</v>
       </c>
       <c r="E112">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G112">
         <v>0</v>
@@ -3764,7 +3756,7 @@
         <v>39</v>
       </c>
       <c r="E113">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -3793,7 +3785,7 @@
         <v>39</v>
       </c>
       <c r="E114">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G114">
         <v>0</v>
@@ -3822,7 +3814,7 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G115">
         <v>0</v>
@@ -3851,7 +3843,7 @@
         <v>39</v>
       </c>
       <c r="E116">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G116">
         <v>0</v>
@@ -3880,7 +3872,7 @@
         <v>39</v>
       </c>
       <c r="E117">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G117">
         <v>0</v>
@@ -3909,7 +3901,7 @@
         <v>39</v>
       </c>
       <c r="E118">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G118">
         <v>0</v>
@@ -3938,7 +3930,7 @@
         <v>39</v>
       </c>
       <c r="E119">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -3967,7 +3959,7 @@
         <v>39</v>
       </c>
       <c r="E120">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G120">
         <v>0</v>
@@ -3996,7 +3988,7 @@
         <v>39</v>
       </c>
       <c r="E121">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G121">
         <v>0</v>
@@ -4025,7 +4017,7 @@
         <v>39</v>
       </c>
       <c r="E122">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G122">
         <v>0</v>
@@ -4054,7 +4046,7 @@
         <v>39</v>
       </c>
       <c r="E123">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G123">
         <v>0</v>
@@ -4083,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="E124">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G124">
         <v>0</v>
@@ -4112,7 +4104,7 @@
         <v>39</v>
       </c>
       <c r="E125">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G125">
         <v>0</v>
@@ -4141,7 +4133,7 @@
         <v>39</v>
       </c>
       <c r="E126">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G126">
         <v>0</v>
@@ -4170,7 +4162,7 @@
         <v>39</v>
       </c>
       <c r="E127">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G127">
         <v>0</v>
@@ -4199,7 +4191,7 @@
         <v>39</v>
       </c>
       <c r="E128">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G128">
         <v>0</v>
@@ -4228,7 +4220,7 @@
         <v>39</v>
       </c>
       <c r="E129">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G129">
         <v>0</v>
@@ -4257,7 +4249,7 @@
         <v>39</v>
       </c>
       <c r="E130">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G130">
         <v>0</v>
@@ -4286,7 +4278,7 @@
         <v>39</v>
       </c>
       <c r="E131">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -4315,7 +4307,7 @@
         <v>39</v>
       </c>
       <c r="E132">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G132">
         <v>0</v>
@@ -4344,7 +4336,7 @@
         <v>39</v>
       </c>
       <c r="E133">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G133">
         <v>0</v>
@@ -4373,7 +4365,7 @@
         <v>39</v>
       </c>
       <c r="E134">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G134">
         <v>0</v>
@@ -4402,7 +4394,7 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G135">
         <v>0</v>
@@ -4431,7 +4423,7 @@
         <v>39</v>
       </c>
       <c r="E136">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G136">
         <v>0</v>
@@ -4460,7 +4452,7 @@
         <v>39</v>
       </c>
       <c r="E137">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -4489,7 +4481,7 @@
         <v>39</v>
       </c>
       <c r="E138">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G138">
         <v>0</v>
@@ -4518,7 +4510,7 @@
         <v>39</v>
       </c>
       <c r="E139">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G139">
         <v>0</v>
@@ -4541,16 +4533,25 @@
         <v>43</v>
       </c>
       <c r="C140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
         <v>39</v>
       </c>
       <c r="E140">
-        <v>1990</v>
+        <v>2019</v>
+      </c>
+      <c r="G140">
+        <v>0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>57</v>
       </c>
       <c r="I140" t="s">
         <v>47</v>
+      </c>
+      <c r="L140" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -4567,7 +4568,7 @@
         <v>39</v>
       </c>
       <c r="E141">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I141" t="s">
         <v>47</v>
@@ -4587,7 +4588,7 @@
         <v>39</v>
       </c>
       <c r="E142">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I142" t="s">
         <v>47</v>
@@ -4607,7 +4608,7 @@
         <v>39</v>
       </c>
       <c r="E143">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I143" t="s">
         <v>47</v>
@@ -4627,7 +4628,7 @@
         <v>39</v>
       </c>
       <c r="E144">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I144" t="s">
         <v>47</v>
@@ -4647,7 +4648,7 @@
         <v>39</v>
       </c>
       <c r="E145">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I145" t="s">
         <v>47</v>
@@ -4667,7 +4668,7 @@
         <v>39</v>
       </c>
       <c r="E146">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I146" t="s">
         <v>47</v>
@@ -4687,7 +4688,7 @@
         <v>39</v>
       </c>
       <c r="E147">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I147" t="s">
         <v>47</v>
@@ -4707,7 +4708,7 @@
         <v>39</v>
       </c>
       <c r="E148">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I148" t="s">
         <v>47</v>
@@ -4727,7 +4728,7 @@
         <v>39</v>
       </c>
       <c r="E149">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I149" t="s">
         <v>47</v>
@@ -4747,7 +4748,7 @@
         <v>39</v>
       </c>
       <c r="E150">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I150" t="s">
         <v>47</v>
@@ -4767,7 +4768,7 @@
         <v>39</v>
       </c>
       <c r="E151">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I151" t="s">
         <v>47</v>
@@ -4787,7 +4788,7 @@
         <v>39</v>
       </c>
       <c r="E152">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I152" t="s">
         <v>47</v>
@@ -4807,7 +4808,7 @@
         <v>39</v>
       </c>
       <c r="E153">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I153" t="s">
         <v>47</v>
@@ -4827,7 +4828,7 @@
         <v>39</v>
       </c>
       <c r="E154">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I154" t="s">
         <v>47</v>
@@ -4847,7 +4848,7 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I155" t="s">
         <v>47</v>
@@ -4867,7 +4868,7 @@
         <v>39</v>
       </c>
       <c r="E156">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I156" t="s">
         <v>47</v>
@@ -4887,7 +4888,7 @@
         <v>39</v>
       </c>
       <c r="E157">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I157" t="s">
         <v>47</v>
@@ -4907,7 +4908,7 @@
         <v>39</v>
       </c>
       <c r="E158">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I158" t="s">
         <v>47</v>
@@ -4927,7 +4928,7 @@
         <v>39</v>
       </c>
       <c r="E159">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I159" t="s">
         <v>47</v>
@@ -4947,7 +4948,7 @@
         <v>39</v>
       </c>
       <c r="E160">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I160" t="s">
         <v>47</v>
@@ -4967,7 +4968,7 @@
         <v>39</v>
       </c>
       <c r="E161">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I161" t="s">
         <v>47</v>
@@ -4987,7 +4988,7 @@
         <v>39</v>
       </c>
       <c r="E162">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I162" t="s">
         <v>47</v>
@@ -5007,7 +5008,7 @@
         <v>39</v>
       </c>
       <c r="E163">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I163" t="s">
         <v>47</v>
@@ -5027,22 +5028,10 @@
         <v>39</v>
       </c>
       <c r="E164">
-        <v>2014</v>
-      </c>
-      <c r="G164">
-        <v>82.5</v>
-      </c>
-      <c r="H164" t="s">
-        <v>62</v>
+        <v>2013</v>
       </c>
       <c r="I164" t="s">
         <v>47</v>
-      </c>
-      <c r="J164" t="s">
-        <v>63</v>
-      </c>
-      <c r="L164" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -5059,10 +5048,22 @@
         <v>39</v>
       </c>
       <c r="E165">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G165">
+        <v>82.5</v>
+      </c>
+      <c r="H165" t="s">
+        <v>62</v>
       </c>
       <c r="I165" t="s">
         <v>47</v>
+      </c>
+      <c r="J165" t="s">
+        <v>63</v>
+      </c>
+      <c r="L165" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -5079,7 +5080,7 @@
         <v>39</v>
       </c>
       <c r="E166">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I166" t="s">
         <v>47</v>
@@ -5099,7 +5100,7 @@
         <v>39</v>
       </c>
       <c r="E167">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I167" t="s">
         <v>47</v>
@@ -5119,7 +5120,7 @@
         <v>39</v>
       </c>
       <c r="E168">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I168" t="s">
         <v>47</v>
@@ -5139,7 +5140,7 @@
         <v>39</v>
       </c>
       <c r="E169">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I169" t="s">
         <v>47</v>
@@ -5153,13 +5154,13 @@
         <v>43</v>
       </c>
       <c r="C170" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D170" t="s">
         <v>39</v>
       </c>
       <c r="E170">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I170" t="s">
         <v>47</v>
@@ -5179,7 +5180,7 @@
         <v>39</v>
       </c>
       <c r="E171">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I171" t="s">
         <v>47</v>
@@ -5199,7 +5200,7 @@
         <v>39</v>
       </c>
       <c r="E172">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I172" t="s">
         <v>47</v>
@@ -5219,7 +5220,7 @@
         <v>39</v>
       </c>
       <c r="E173">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I173" t="s">
         <v>47</v>
@@ -5239,7 +5240,7 @@
         <v>39</v>
       </c>
       <c r="E174">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I174" t="s">
         <v>47</v>
@@ -5259,7 +5260,7 @@
         <v>39</v>
       </c>
       <c r="E175">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I175" t="s">
         <v>47</v>
@@ -5279,7 +5280,7 @@
         <v>39</v>
       </c>
       <c r="E176">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I176" t="s">
         <v>47</v>
@@ -5299,7 +5300,7 @@
         <v>39</v>
       </c>
       <c r="E177">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I177" t="s">
         <v>47</v>
@@ -5319,7 +5320,7 @@
         <v>39</v>
       </c>
       <c r="E178">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I178" t="s">
         <v>47</v>
@@ -5339,7 +5340,7 @@
         <v>39</v>
       </c>
       <c r="E179">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I179" t="s">
         <v>47</v>
@@ -5359,7 +5360,7 @@
         <v>39</v>
       </c>
       <c r="E180">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I180" t="s">
         <v>47</v>
@@ -5379,7 +5380,7 @@
         <v>39</v>
       </c>
       <c r="E181">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I181" t="s">
         <v>47</v>
@@ -5399,7 +5400,7 @@
         <v>39</v>
       </c>
       <c r="E182">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I182" t="s">
         <v>47</v>
@@ -5419,7 +5420,7 @@
         <v>39</v>
       </c>
       <c r="E183">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I183" t="s">
         <v>47</v>
@@ -5439,7 +5440,7 @@
         <v>39</v>
       </c>
       <c r="E184">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I184" t="s">
         <v>47</v>
@@ -5459,7 +5460,7 @@
         <v>39</v>
       </c>
       <c r="E185">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I185" t="s">
         <v>47</v>
@@ -5479,7 +5480,7 @@
         <v>39</v>
       </c>
       <c r="E186">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I186" t="s">
         <v>47</v>
@@ -5499,7 +5500,7 @@
         <v>39</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I187" t="s">
         <v>47</v>
@@ -5519,7 +5520,7 @@
         <v>39</v>
       </c>
       <c r="E188">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I188" t="s">
         <v>47</v>
@@ -5539,7 +5540,7 @@
         <v>39</v>
       </c>
       <c r="E189">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I189" t="s">
         <v>47</v>
@@ -5559,7 +5560,7 @@
         <v>39</v>
       </c>
       <c r="E190">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I190" t="s">
         <v>47</v>
@@ -5579,7 +5580,7 @@
         <v>39</v>
       </c>
       <c r="E191">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I191" t="s">
         <v>47</v>
@@ -5599,7 +5600,7 @@
         <v>39</v>
       </c>
       <c r="E192">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I192" t="s">
         <v>47</v>
@@ -5619,7 +5620,7 @@
         <v>39</v>
       </c>
       <c r="E193">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I193" t="s">
         <v>47</v>
@@ -5639,22 +5640,10 @@
         <v>39</v>
       </c>
       <c r="E194">
-        <v>2014</v>
-      </c>
-      <c r="G194">
-        <v>5500</v>
-      </c>
-      <c r="H194" t="s">
-        <v>62</v>
+        <v>2013</v>
       </c>
       <c r="I194" t="s">
         <v>47</v>
-      </c>
-      <c r="J194" t="s">
-        <v>63</v>
-      </c>
-      <c r="L194" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -5671,10 +5660,22 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G195">
+        <v>5500</v>
+      </c>
+      <c r="H195" t="s">
+        <v>62</v>
       </c>
       <c r="I195" t="s">
         <v>47</v>
+      </c>
+      <c r="J195" t="s">
+        <v>63</v>
+      </c>
+      <c r="L195" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -5691,7 +5692,7 @@
         <v>39</v>
       </c>
       <c r="E196">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I196" t="s">
         <v>47</v>
@@ -5711,7 +5712,7 @@
         <v>39</v>
       </c>
       <c r="E197">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I197" t="s">
         <v>47</v>
@@ -5731,7 +5732,7 @@
         <v>39</v>
       </c>
       <c r="E198">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I198" t="s">
         <v>47</v>
@@ -5751,7 +5752,7 @@
         <v>39</v>
       </c>
       <c r="E199">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I199" t="s">
         <v>47</v>
@@ -5765,13 +5766,13 @@
         <v>43</v>
       </c>
       <c r="C200" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D200" t="s">
         <v>39</v>
       </c>
       <c r="E200">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="I200" t="s">
         <v>47</v>
@@ -5791,7 +5792,7 @@
         <v>39</v>
       </c>
       <c r="E201">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="I201" t="s">
         <v>47</v>
@@ -5811,7 +5812,7 @@
         <v>39</v>
       </c>
       <c r="E202">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="I202" t="s">
         <v>47</v>
@@ -5831,7 +5832,7 @@
         <v>39</v>
       </c>
       <c r="E203">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="I203" t="s">
         <v>47</v>
@@ -5851,7 +5852,7 @@
         <v>39</v>
       </c>
       <c r="E204">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="I204" t="s">
         <v>47</v>
@@ -5871,7 +5872,7 @@
         <v>39</v>
       </c>
       <c r="E205">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I205" t="s">
         <v>47</v>
@@ -5891,7 +5892,7 @@
         <v>39</v>
       </c>
       <c r="E206">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="I206" t="s">
         <v>47</v>
@@ -5911,7 +5912,7 @@
         <v>39</v>
       </c>
       <c r="E207">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="I207" t="s">
         <v>47</v>
@@ -5931,13 +5932,13 @@
         <v>39</v>
       </c>
       <c r="E208">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="I208" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>16</v>
       </c>
@@ -5951,13 +5952,13 @@
         <v>39</v>
       </c>
       <c r="E209">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="I209" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>16</v>
       </c>
@@ -5971,13 +5972,13 @@
         <v>39</v>
       </c>
       <c r="E210">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="I210" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>16</v>
       </c>
@@ -5991,13 +5992,13 @@
         <v>39</v>
       </c>
       <c r="E211">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="I211" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>16</v>
       </c>
@@ -6011,13 +6012,13 @@
         <v>39</v>
       </c>
       <c r="E212">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="I212" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>16</v>
       </c>
@@ -6031,13 +6032,13 @@
         <v>39</v>
       </c>
       <c r="E213">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="I213" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>16</v>
       </c>
@@ -6051,13 +6052,13 @@
         <v>39</v>
       </c>
       <c r="E214">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="I214" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>16</v>
       </c>
@@ -6071,13 +6072,13 @@
         <v>39</v>
       </c>
       <c r="E215">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="I215" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -6091,13 +6092,13 @@
         <v>39</v>
       </c>
       <c r="E216">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="I216" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>16</v>
       </c>
@@ -6111,13 +6112,13 @@
         <v>39</v>
       </c>
       <c r="E217">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="I217" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>16</v>
       </c>
@@ -6131,13 +6132,13 @@
         <v>39</v>
       </c>
       <c r="E218">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="I218" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>16</v>
       </c>
@@ -6151,13 +6152,13 @@
         <v>39</v>
       </c>
       <c r="E219">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="I219" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>16</v>
       </c>
@@ -6171,13 +6172,13 @@
         <v>39</v>
       </c>
       <c r="E220">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="I220" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>16</v>
       </c>
@@ -6191,13 +6192,13 @@
         <v>39</v>
       </c>
       <c r="E221">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="I221" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>16</v>
       </c>
@@ -6211,13 +6212,13 @@
         <v>39</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="I222" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>16</v>
       </c>
@@ -6231,13 +6232,13 @@
         <v>39</v>
       </c>
       <c r="E223">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="I223" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>16</v>
       </c>
@@ -6251,22 +6252,10 @@
         <v>39</v>
       </c>
       <c r="E224">
-        <v>2014</v>
-      </c>
-      <c r="G224">
-        <v>5</v>
-      </c>
-      <c r="H224" t="s">
-        <v>65</v>
+        <v>2013</v>
       </c>
       <c r="I224" t="s">
         <v>47</v>
-      </c>
-      <c r="J224" t="s">
-        <v>63</v>
-      </c>
-      <c r="L224" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -6283,10 +6272,22 @@
         <v>39</v>
       </c>
       <c r="E225">
-        <v>2015</v>
+        <v>2014</v>
+      </c>
+      <c r="G225">
+        <v>5</v>
+      </c>
+      <c r="H225" t="s">
+        <v>65</v>
       </c>
       <c r="I225" t="s">
         <v>47</v>
+      </c>
+      <c r="J225" t="s">
+        <v>63</v>
+      </c>
+      <c r="L225" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -6303,7 +6304,7 @@
         <v>39</v>
       </c>
       <c r="E226">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="I226" t="s">
         <v>47</v>
@@ -6323,7 +6324,7 @@
         <v>39</v>
       </c>
       <c r="E227">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="I227" t="s">
         <v>47</v>
@@ -6343,7 +6344,7 @@
         <v>39</v>
       </c>
       <c r="E228">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="I228" t="s">
         <v>47</v>
@@ -6363,7 +6364,7 @@
         <v>39</v>
       </c>
       <c r="E229">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="I229" t="s">
         <v>47</v>
@@ -6377,25 +6378,16 @@
         <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D230" t="s">
         <v>39</v>
       </c>
       <c r="E230">
-        <v>1990</v>
-      </c>
-      <c r="G230">
-        <v>0</v>
-      </c>
-      <c r="H230" t="s">
-        <v>57</v>
+        <v>2019</v>
       </c>
       <c r="I230" t="s">
         <v>47</v>
-      </c>
-      <c r="L230" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -6412,7 +6404,7 @@
         <v>39</v>
       </c>
       <c r="E231">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G231">
         <v>0</v>
@@ -6441,7 +6433,7 @@
         <v>39</v>
       </c>
       <c r="E232">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G232">
         <v>0</v>
@@ -6470,7 +6462,7 @@
         <v>39</v>
       </c>
       <c r="E233">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -6499,7 +6491,7 @@
         <v>39</v>
       </c>
       <c r="E234">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G234">
         <v>0</v>
@@ -6528,7 +6520,7 @@
         <v>39</v>
       </c>
       <c r="E235">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G235">
         <v>0</v>
@@ -6557,7 +6549,7 @@
         <v>39</v>
       </c>
       <c r="E236">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G236">
         <v>0</v>
@@ -6586,7 +6578,7 @@
         <v>39</v>
       </c>
       <c r="E237">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G237">
         <v>0</v>
@@ -6615,7 +6607,7 @@
         <v>39</v>
       </c>
       <c r="E238">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G238">
         <v>0</v>
@@ -6644,7 +6636,7 @@
         <v>39</v>
       </c>
       <c r="E239">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G239">
         <v>0</v>
@@ -6673,7 +6665,7 @@
         <v>39</v>
       </c>
       <c r="E240">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G240">
         <v>0</v>
@@ -6702,7 +6694,7 @@
         <v>39</v>
       </c>
       <c r="E241">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G241">
         <v>0</v>
@@ -6731,7 +6723,7 @@
         <v>39</v>
       </c>
       <c r="E242">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G242">
         <v>0</v>
@@ -6760,7 +6752,7 @@
         <v>39</v>
       </c>
       <c r="E243">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G243">
         <v>0</v>
@@ -6789,7 +6781,7 @@
         <v>39</v>
       </c>
       <c r="E244">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G244">
         <v>0</v>
@@ -6818,7 +6810,7 @@
         <v>39</v>
       </c>
       <c r="E245">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G245">
         <v>0</v>
@@ -6847,7 +6839,7 @@
         <v>39</v>
       </c>
       <c r="E246">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G246">
         <v>0</v>
@@ -6876,7 +6868,7 @@
         <v>39</v>
       </c>
       <c r="E247">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G247">
         <v>0</v>
@@ -6905,7 +6897,7 @@
         <v>39</v>
       </c>
       <c r="E248">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G248">
         <v>0</v>
@@ -6934,7 +6926,7 @@
         <v>39</v>
       </c>
       <c r="E249">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G249">
         <v>0</v>
@@ -6963,7 +6955,7 @@
         <v>39</v>
       </c>
       <c r="E250">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G250">
         <v>0</v>
@@ -6992,7 +6984,7 @@
         <v>39</v>
       </c>
       <c r="E251">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -7021,7 +7013,7 @@
         <v>39</v>
       </c>
       <c r="E252">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G252">
         <v>0</v>
@@ -7050,7 +7042,7 @@
         <v>39</v>
       </c>
       <c r="E253">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G253">
         <v>0</v>
@@ -7079,7 +7071,7 @@
         <v>39</v>
       </c>
       <c r="E254">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G254">
         <v>0</v>
@@ -7108,7 +7100,7 @@
         <v>39</v>
       </c>
       <c r="E255">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G255">
         <v>0</v>
@@ -7137,7 +7129,7 @@
         <v>39</v>
       </c>
       <c r="E256">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G256">
         <v>0</v>
@@ -7166,7 +7158,7 @@
         <v>39</v>
       </c>
       <c r="E257">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -7195,7 +7187,7 @@
         <v>39</v>
       </c>
       <c r="E258">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G258">
         <v>0</v>
@@ -7224,7 +7216,7 @@
         <v>39</v>
       </c>
       <c r="E259">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G259">
         <v>0</v>
@@ -7247,22 +7239,25 @@
         <v>43</v>
       </c>
       <c r="C260" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D260" t="s">
         <v>39</v>
       </c>
       <c r="E260">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G260">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="H260" t="s">
+        <v>57</v>
       </c>
       <c r="I260" t="s">
         <v>47</v>
       </c>
-      <c r="J260" t="s">
-        <v>67</v>
+      <c r="L260" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -7279,10 +7274,10 @@
         <v>39</v>
       </c>
       <c r="E261">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G261">
-        <v>0.48193489699999997</v>
+        <v>1</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -7305,10 +7300,10 @@
         <v>39</v>
       </c>
       <c r="E262">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G262">
-        <v>0.52774263899999996</v>
+        <v>0.48193489699999997</v>
       </c>
       <c r="I262" t="s">
         <v>47</v>
@@ -7331,10 +7326,10 @@
         <v>39</v>
       </c>
       <c r="E263">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G263">
-        <v>0.53578760199999997</v>
+        <v>0.52774263899999996</v>
       </c>
       <c r="I263" t="s">
         <v>47</v>
@@ -7357,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="E264">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G264">
-        <v>0.57528420899999999</v>
+        <v>0.53578760199999997</v>
       </c>
       <c r="I264" t="s">
         <v>47</v>
@@ -7383,10 +7378,10 @@
         <v>39</v>
       </c>
       <c r="E265">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G265">
-        <v>0.55995716799999995</v>
+        <v>0.57528420899999999</v>
       </c>
       <c r="I265" t="s">
         <v>47</v>
@@ -7409,10 +7404,10 @@
         <v>39</v>
       </c>
       <c r="E266">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G266">
-        <v>0.461516749</v>
+        <v>0.55995716799999995</v>
       </c>
       <c r="I266" t="s">
         <v>47</v>
@@ -7435,10 +7430,10 @@
         <v>39</v>
       </c>
       <c r="E267">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G267">
-        <v>0.49615836000000002</v>
+        <v>0.461516749</v>
       </c>
       <c r="I267" t="s">
         <v>47</v>
@@ -7461,10 +7456,10 @@
         <v>39</v>
       </c>
       <c r="E268">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G268">
-        <v>0.505308337</v>
+        <v>0.49615836000000002</v>
       </c>
       <c r="I268" t="s">
         <v>47</v>
@@ -7487,10 +7482,10 @@
         <v>39</v>
       </c>
       <c r="E269">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G269">
-        <v>0.56182886099999996</v>
+        <v>0.505308337</v>
       </c>
       <c r="I269" t="s">
         <v>47</v>
@@ -7513,10 +7508,10 @@
         <v>39</v>
       </c>
       <c r="E270">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G270">
-        <v>0.59309409700000004</v>
+        <v>0.56182886099999996</v>
       </c>
       <c r="I270" t="s">
         <v>47</v>
@@ -7539,10 +7534,10 @@
         <v>39</v>
       </c>
       <c r="E271">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G271">
-        <v>0.58312801800000003</v>
+        <v>0.59309409700000004</v>
       </c>
       <c r="I271" t="s">
         <v>47</v>
@@ -7565,10 +7560,10 @@
         <v>39</v>
       </c>
       <c r="E272">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G272">
-        <v>0.57898886400000005</v>
+        <v>0.58312801800000003</v>
       </c>
       <c r="I272" t="s">
         <v>47</v>
@@ -7591,10 +7586,10 @@
         <v>39</v>
       </c>
       <c r="E273">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G273">
-        <v>0.50583095199999994</v>
+        <v>0.57898886400000005</v>
       </c>
       <c r="I273" t="s">
         <v>47</v>
@@ -7617,10 +7612,10 @@
         <v>39</v>
       </c>
       <c r="E274">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G274">
-        <v>0.52688807900000001</v>
+        <v>0.50583095199999994</v>
       </c>
       <c r="I274" t="s">
         <v>47</v>
@@ -7643,10 +7638,10 @@
         <v>39</v>
       </c>
       <c r="E275">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G275">
-        <v>0.49269077900000002</v>
+        <v>0.52688807900000001</v>
       </c>
       <c r="I275" t="s">
         <v>47</v>
@@ -7669,10 +7664,10 @@
         <v>39</v>
       </c>
       <c r="E276">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G276">
-        <v>0.496104922</v>
+        <v>0.49269077900000002</v>
       </c>
       <c r="I276" t="s">
         <v>47</v>
@@ -7695,10 +7690,10 @@
         <v>39</v>
       </c>
       <c r="E277">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G277">
-        <v>0.51893597300000005</v>
+        <v>0.496104922</v>
       </c>
       <c r="I277" t="s">
         <v>47</v>
@@ -7721,10 +7716,10 @@
         <v>39</v>
       </c>
       <c r="E278">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G278">
-        <v>0.52074867999999996</v>
+        <v>0.51893597300000005</v>
       </c>
       <c r="I278" t="s">
         <v>47</v>
@@ -7747,10 +7742,10 @@
         <v>39</v>
       </c>
       <c r="E279">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G279">
-        <v>0.50277245800000003</v>
+        <v>0.52074867999999996</v>
       </c>
       <c r="I279" t="s">
         <v>47</v>
@@ -7773,10 +7768,10 @@
         <v>39</v>
       </c>
       <c r="E280">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G280">
-        <v>0.485641975</v>
+        <v>0.50277245800000003</v>
       </c>
       <c r="I280" t="s">
         <v>47</v>
@@ -7799,10 +7794,10 @@
         <v>39</v>
       </c>
       <c r="E281">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G281">
-        <v>0.44142679099999999</v>
+        <v>0.485641975</v>
       </c>
       <c r="I281" t="s">
         <v>47</v>
@@ -7825,10 +7820,10 @@
         <v>39</v>
       </c>
       <c r="E282">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G282">
-        <v>0.53012915599999999</v>
+        <v>0.44142679099999999</v>
       </c>
       <c r="I282" t="s">
         <v>47</v>
@@ -7851,10 +7846,10 @@
         <v>39</v>
       </c>
       <c r="E283">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G283">
-        <v>0.52608195199999996</v>
+        <v>0.53012915599999999</v>
       </c>
       <c r="I283" t="s">
         <v>47</v>
@@ -7877,10 +7872,10 @@
         <v>39</v>
       </c>
       <c r="E284">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G284">
-        <v>0.50552529199999996</v>
+        <v>0.52608195199999996</v>
       </c>
       <c r="I284" t="s">
         <v>47</v>
@@ -7903,10 +7898,10 @@
         <v>39</v>
       </c>
       <c r="E285">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G285">
-        <v>0.480652774</v>
+        <v>0.50552529199999996</v>
       </c>
       <c r="I285" t="s">
         <v>47</v>
@@ -7929,10 +7924,10 @@
         <v>39</v>
       </c>
       <c r="E286">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G286">
-        <v>0.47252149199999999</v>
+        <v>0.480652774</v>
       </c>
       <c r="I286" t="s">
         <v>47</v>
@@ -7955,10 +7950,10 @@
         <v>39</v>
       </c>
       <c r="E287">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G287">
-        <v>0.44910678799999998</v>
+        <v>0.47252149199999999</v>
       </c>
       <c r="I287" t="s">
         <v>47</v>
@@ -7981,10 +7976,10 @@
         <v>39</v>
       </c>
       <c r="E288">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G288">
-        <v>0.46703340799999998</v>
+        <v>0.44910678799999998</v>
       </c>
       <c r="I288" t="s">
         <v>47</v>
@@ -8007,10 +8002,10 @@
         <v>39</v>
       </c>
       <c r="E289">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G289">
-        <v>0.48551606800000002</v>
+        <v>0.46703340799999998</v>
       </c>
       <c r="I289" t="s">
         <v>47</v>
@@ -8027,16 +8022,16 @@
         <v>43</v>
       </c>
       <c r="C290" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D290" t="s">
         <v>39</v>
       </c>
       <c r="E290">
-        <v>1990</v>
+        <v>2019</v>
       </c>
       <c r="G290">
-        <v>0</v>
+        <v>0.48551606800000002</v>
       </c>
       <c r="I290" t="s">
         <v>47</v>
@@ -8059,10 +8054,10 @@
         <v>39</v>
       </c>
       <c r="E291">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="G291">
-        <v>0.25941034499999999</v>
+        <v>0</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
@@ -8085,10 +8080,10 @@
         <v>39</v>
       </c>
       <c r="E292">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G292">
-        <v>0.285397556</v>
+        <v>0.25941034499999999</v>
       </c>
       <c r="I292" t="s">
         <v>47</v>
@@ -8111,10 +8106,10 @@
         <v>39</v>
       </c>
       <c r="E293">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="G293">
-        <v>0.28045073300000001</v>
+        <v>0.285397556</v>
       </c>
       <c r="I293" t="s">
         <v>47</v>
@@ -8137,10 +8132,10 @@
         <v>39</v>
       </c>
       <c r="E294">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G294">
-        <v>0.29838635099999999</v>
+        <v>0.28045073300000001</v>
       </c>
       <c r="I294" t="s">
         <v>47</v>
@@ -8163,10 +8158,10 @@
         <v>39</v>
       </c>
       <c r="E295">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G295">
-        <v>0.302819901</v>
+        <v>0.29838635099999999</v>
       </c>
       <c r="I295" t="s">
         <v>47</v>
@@ -8189,10 +8184,10 @@
         <v>39</v>
       </c>
       <c r="E296">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="G296">
-        <v>0.296544788</v>
+        <v>0.302819901</v>
       </c>
       <c r="I296" t="s">
         <v>47</v>
@@ -8215,10 +8210,10 @@
         <v>39</v>
       </c>
       <c r="E297">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="G297">
-        <v>0.27977765399999999</v>
+        <v>0.296544788</v>
       </c>
       <c r="I297" t="s">
         <v>47</v>
@@ -8241,10 +8236,10 @@
         <v>39</v>
       </c>
       <c r="E298">
-        <v>1998</v>
+        <v>1997</v>
       </c>
       <c r="G298">
-        <v>0.29173744000000001</v>
+        <v>0.27977765399999999</v>
       </c>
       <c r="I298" t="s">
         <v>47</v>
@@ -8267,10 +8262,10 @@
         <v>39</v>
       </c>
       <c r="E299">
-        <v>1999</v>
+        <v>1998</v>
       </c>
       <c r="G299">
-        <v>0.314572672</v>
+        <v>0.29173744000000001</v>
       </c>
       <c r="I299" t="s">
         <v>47</v>
@@ -8293,10 +8288,10 @@
         <v>39</v>
       </c>
       <c r="E300">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="G300">
-        <v>0.31207885400000002</v>
+        <v>0.314572672</v>
       </c>
       <c r="I300" t="s">
         <v>47</v>
@@ -8319,10 +8314,10 @@
         <v>39</v>
       </c>
       <c r="E301">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="G301">
-        <v>0.30814127299999999</v>
+        <v>0.31207885400000002</v>
       </c>
       <c r="I301" t="s">
         <v>47</v>
@@ -8345,10 +8340,10 @@
         <v>39</v>
       </c>
       <c r="E302">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="G302">
-        <v>0.30726439500000002</v>
+        <v>0.30814127299999999</v>
       </c>
       <c r="I302" t="s">
         <v>47</v>
@@ -8371,10 +8366,10 @@
         <v>39</v>
       </c>
       <c r="E303">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="G303">
-        <v>0.27924473399999999</v>
+        <v>0.30726439500000002</v>
       </c>
       <c r="I303" t="s">
         <v>47</v>
@@ -8397,10 +8392,10 @@
         <v>39</v>
       </c>
       <c r="E304">
-        <v>2004</v>
+        <v>2003</v>
       </c>
       <c r="G304">
-        <v>0.30143915399999999</v>
+        <v>0.27924473399999999</v>
       </c>
       <c r="I304" t="s">
         <v>47</v>
@@ -8423,10 +8418,10 @@
         <v>39</v>
       </c>
       <c r="E305">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="G305">
-        <v>0.27670751700000001</v>
+        <v>0.30143915399999999</v>
       </c>
       <c r="I305" t="s">
         <v>47</v>
@@ -8449,10 +8444,10 @@
         <v>39</v>
       </c>
       <c r="E306">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="G306">
-        <v>0.29345175200000001</v>
+        <v>0.27670751700000001</v>
       </c>
       <c r="I306" t="s">
         <v>47</v>
@@ -8475,10 +8470,10 @@
         <v>39</v>
       </c>
       <c r="E307">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G307">
-        <v>0.27642073299999997</v>
+        <v>0.29345175200000001</v>
       </c>
       <c r="I307" t="s">
         <v>47</v>
@@ -8501,10 +8496,10 @@
         <v>39</v>
       </c>
       <c r="E308">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G308">
-        <v>0.28989398599999999</v>
+        <v>0.27642073299999997</v>
       </c>
       <c r="I308" t="s">
         <v>47</v>
@@ -8527,10 +8522,10 @@
         <v>39</v>
       </c>
       <c r="E309">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G309">
-        <v>0.29722649499999998</v>
+        <v>0.28989398599999999</v>
       </c>
       <c r="I309" t="s">
         <v>47</v>
@@ -8553,10 +8548,10 @@
         <v>39</v>
       </c>
       <c r="E310">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G310">
-        <v>0.300842204</v>
+        <v>0.29722649499999998</v>
       </c>
       <c r="I310" t="s">
         <v>47</v>
@@ -8579,10 +8574,10 @@
         <v>39</v>
       </c>
       <c r="E311">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="G311">
-        <v>0.26236584299999999</v>
+        <v>0.300842204</v>
       </c>
       <c r="I311" t="s">
         <v>47</v>
@@ -8605,10 +8600,10 @@
         <v>39</v>
       </c>
       <c r="E312">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G312">
-        <v>0.29743174</v>
+        <v>0.26236584299999999</v>
       </c>
       <c r="I312" t="s">
         <v>47</v>
@@ -8631,10 +8626,10 @@
         <v>39</v>
       </c>
       <c r="E313">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G313">
-        <v>0.31442167399999998</v>
+        <v>0.29743174</v>
       </c>
       <c r="I313" t="s">
         <v>47</v>
@@ -8657,10 +8652,10 @@
         <v>39</v>
       </c>
       <c r="E314">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G314">
-        <v>0.31237580999999998</v>
+        <v>0.31442167399999998</v>
       </c>
       <c r="I314" t="s">
         <v>47</v>
@@ -8683,10 +8678,10 @@
         <v>39</v>
       </c>
       <c r="E315">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G315">
-        <v>0.28465049100000001</v>
+        <v>0.31237580999999998</v>
       </c>
       <c r="I315" t="s">
         <v>47</v>
@@ -8709,10 +8704,10 @@
         <v>39</v>
       </c>
       <c r="E316">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="G316">
-        <v>0.29892490300000002</v>
+        <v>0.28465049100000001</v>
       </c>
       <c r="I316" t="s">
         <v>47</v>
@@ -8735,7 +8730,7 @@
         <v>39</v>
       </c>
       <c r="E317">
-        <v>2017</v>
+        <v>2016</v>
       </c>
       <c r="G317">
         <v>0.29892490300000002</v>
@@ -8761,7 +8756,7 @@
         <v>39</v>
       </c>
       <c r="E318">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G318">
         <v>0.29892490300000002</v>
@@ -8787,7 +8782,7 @@
         <v>39</v>
       </c>
       <c r="E319">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="G319">
         <v>0.29892490300000002</v>
@@ -8799,11 +8794,37 @@
         <v>67</v>
       </c>
     </row>
-    <row r="432" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K432" s="2"/>
+    <row r="320" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>16</v>
+      </c>
+      <c r="B320" t="s">
+        <v>43</v>
+      </c>
+      <c r="C320" t="s">
+        <v>29</v>
+      </c>
+      <c r="D320" t="s">
+        <v>39</v>
+      </c>
+      <c r="E320">
+        <v>2019</v>
+      </c>
+      <c r="G320">
+        <v>0.29892490300000002</v>
+      </c>
+      <c r="I320" t="s">
+        <v>47</v>
+      </c>
+      <c r="J320" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="433" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K433" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:L852" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:L853" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/zenodo/conversion/elec/CHE_convelec_hydroror.xlsx
+++ b/data/zenodo/conversion/elec/CHE_convelec_hydroror.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiziv/switchdrive/ACCURACY/RESTORE/data/zenodo/conversion/elec/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD5EC5B-8076-F641-8442-78534132B8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9ADFD3-092F-EF44-A6D4-BF7A88DB8E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17500" yWindow="500" windowWidth="20900" windowHeight="19900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -370,9 +370,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,9 +410,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -445,26 +445,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -497,26 +480,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -693,8 +659,8 @@
   <dimension ref="A1:L433"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <pane ySplit="5" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G262" sqref="G261:G262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7277,7 +7243,7 @@
         <v>1990</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0.48193489699999997</v>
       </c>
       <c r="I261" t="s">
         <v>47</v>
@@ -8057,7 +8023,7 @@
         <v>1990</v>
       </c>
       <c r="G291">
-        <v>0</v>
+        <v>0.25941034499999999</v>
       </c>
       <c r="I291" t="s">
         <v>47</v>
